--- a/dataset/features.xlsx
+++ b/dataset/features.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>ASSET_TURNOVER</t>
   </si>
@@ -92,12 +92,6 @@
   </si>
   <si>
     <t>TOT_DEBT_TO_TOT_EQY</t>
-  </si>
-  <si>
-    <t>IS_INT_EXPENSES</t>
-  </si>
-  <si>
-    <t>INT_COVERAGE_RATIO</t>
   </si>
   <si>
     <t>AGL SJ Equity</t>
@@ -665,13 +659,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC71"/>
+  <dimension ref="A1:AA71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,16 +744,10 @@
       <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
-      <c r="A2" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="B2">
         <v>0.4577</v>
@@ -840,9 +828,9 @@
         <v>53.4902</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>0.5639999999999999</v>
@@ -923,9 +911,9 @@
         <v>64.4385</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>0.2747</v>
@@ -1006,9 +994,9 @@
         <v>84.3433</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:27">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>0.8784</v>
@@ -1089,9 +1077,9 @@
         <v>70.43819999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:27">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>0.5479000000000001</v>
@@ -1172,9 +1160,9 @@
         <v>46.0437</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:27">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>0.2004</v>
@@ -1252,9 +1240,9 @@
         <v>75.0557</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:27">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>1.1292</v>
@@ -1335,9 +1323,9 @@
         <v>91.9606</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:27">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>0.4934</v>
@@ -1415,9 +1403,9 @@
         <v>82.39660000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:27">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <v>0.1622</v>
@@ -1474,9 +1462,9 @@
         <v>42.5436</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:27">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>0.07439999999999999</v>
@@ -1530,9 +1518,9 @@
         <v>56.7884</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:27">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12">
         <v>0.1</v>
@@ -1591,13 +1579,10 @@
       <c r="AA12">
         <v>10.151</v>
       </c>
-      <c r="AB12">
-        <v>75459</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>0.5783</v>
@@ -1678,9 +1663,9 @@
         <v>36.2115</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:27">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14">
         <v>1.6988</v>
@@ -1758,9 +1743,9 @@
         <v>84.3189</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:27">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15">
         <v>0.08160000000000001</v>
@@ -1832,9 +1817,9 @@
         <v>77.01860000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:27">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16">
         <v>0.0303</v>
@@ -1905,13 +1890,10 @@
       <c r="AA16">
         <v>63.0716</v>
       </c>
-      <c r="AC16">
-        <v>3.91</v>
-      </c>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17">
         <v>0.7044</v>
@@ -1994,7 +1976,7 @@
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18">
         <v>0.0553</v>
@@ -2074,7 +2056,7 @@
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19">
         <v>0.5391</v>
@@ -2154,7 +2136,7 @@
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20">
         <v>0.1036</v>
@@ -2225,7 +2207,7 @@
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B21">
         <v>0.7864</v>
@@ -2305,7 +2287,7 @@
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22">
         <v>0.08450000000000001</v>
@@ -2379,7 +2361,7 @@
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B23">
         <v>0.1033</v>
@@ -2450,7 +2432,7 @@
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B24">
         <v>0.4808</v>
@@ -2530,7 +2512,7 @@
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B25">
         <v>0.9661999999999999</v>
@@ -2613,7 +2595,7 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B26">
         <v>0.6474</v>
@@ -2678,7 +2660,7 @@
     </row>
     <row r="27" spans="1:27">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27">
         <v>0.6788999999999999</v>
@@ -2761,7 +2743,7 @@
     </row>
     <row r="28" spans="1:27">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B28">
         <v>0.7345</v>
@@ -2841,7 +2823,7 @@
     </row>
     <row r="29" spans="1:27">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B29">
         <v>0.6867</v>
@@ -2924,7 +2906,7 @@
     </row>
     <row r="30" spans="1:27">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B30">
         <v>0.5893</v>
@@ -3007,7 +2989,7 @@
     </row>
     <row r="31" spans="1:27">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B31">
         <v>0.8562</v>
@@ -3090,7 +3072,7 @@
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B32">
         <v>0.1841</v>
@@ -3171,9 +3153,9 @@
         <v>69.0604</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:27">
       <c r="A33" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B33">
         <v>0.1478</v>
@@ -3232,13 +3214,10 @@
       <c r="AA33">
         <v>538.8865</v>
       </c>
-      <c r="AB33">
-        <v>176689.874</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28">
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B34">
         <v>0.1496</v>
@@ -3297,13 +3276,10 @@
       <c r="AA34">
         <v>30.1399</v>
       </c>
-      <c r="AB34">
-        <v>156376.055</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28">
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B35">
         <v>0.1496</v>
@@ -3362,13 +3338,10 @@
       <c r="AA35">
         <v>30.1399</v>
       </c>
-      <c r="AB35">
-        <v>156376.055</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28">
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B36">
         <v>1.0758</v>
@@ -3449,9 +3422,9 @@
         <v>3272.6638</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:27">
       <c r="A37" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B37">
         <v>0.1735</v>
@@ -3531,13 +3504,10 @@
       <c r="AA37">
         <v>394.8038</v>
       </c>
-      <c r="AB37">
-        <v>48322.361</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28">
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B38">
         <v>0.9314</v>
@@ -3618,9 +3588,9 @@
         <v>152.2495</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:27">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B39">
         <v>0.785</v>
@@ -3701,9 +3671,9 @@
         <v>1751.1131</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:27">
       <c r="A40" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B40">
         <v>0.0975</v>
@@ -3784,9 +3754,9 @@
         <v>51.7712</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:27">
       <c r="A41" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B41">
         <v>0.6782</v>
@@ -3867,9 +3837,9 @@
         <v>41.6305</v>
       </c>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" spans="1:27">
       <c r="A42" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B42">
         <v>0.3421</v>
@@ -3950,9 +3920,9 @@
         <v>117.3346</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:27">
       <c r="A43" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B43">
         <v>0.5138</v>
@@ -4033,9 +4003,9 @@
         <v>231.614</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:27">
       <c r="A44" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B44">
         <v>0.1383</v>
@@ -4116,9 +4086,9 @@
         <v>54.2366</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:27">
       <c r="A45" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B45">
         <v>0.1383</v>
@@ -4199,9 +4169,9 @@
         <v>54.2366</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:27">
       <c r="A46" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B46">
         <v>0.4968</v>
@@ -4282,9 +4252,9 @@
         <v>98.1225</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:27">
       <c r="A47" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B47">
         <v>0.4467</v>
@@ -4365,9 +4335,9 @@
         <v>206.5415</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:27">
       <c r="A48" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B48">
         <v>0.927</v>
@@ -4448,9 +4418,9 @@
         <v>24.7181</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:27">
       <c r="A49" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B49">
         <v>0.328</v>
@@ -4531,9 +4501,9 @@
         <v>88.1721</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:27">
       <c r="A50" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B50">
         <v>1.7565</v>
@@ -4614,9 +4584,9 @@
         <v>224.9778</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" spans="1:27">
       <c r="A51" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B51">
         <v>0.3497</v>
@@ -4697,9 +4667,9 @@
         <v>242.2317</v>
       </c>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" spans="1:27">
       <c r="A52" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B52">
         <v>0.4027</v>
@@ -4780,9 +4750,9 @@
         <v>606.6065</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" spans="1:27">
       <c r="A53" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B53">
         <v>0.9902</v>
@@ -4863,9 +4833,9 @@
         <v>224.2849</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:27">
       <c r="A54" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B54">
         <v>0.5488</v>
@@ -4946,9 +4916,9 @@
         <v>31.41</v>
       </c>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:27">
       <c r="A55" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B55">
         <v>0.505</v>
@@ -5029,9 +4999,9 @@
         <v>79.2651</v>
       </c>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:27">
       <c r="A56" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B56">
         <v>0.505</v>
@@ -5112,9 +5082,9 @@
         <v>79.2651</v>
       </c>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" spans="1:27">
       <c r="A57" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B57">
         <v>0.4898</v>
@@ -5195,9 +5165,9 @@
         <v>68.8443</v>
       </c>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" spans="1:27">
       <c r="A58" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B58">
         <v>0.2298</v>
@@ -5278,9 +5248,9 @@
         <v>140.959</v>
       </c>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" spans="1:27">
       <c r="A59" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B59">
         <v>2.3203</v>
@@ -5361,9 +5331,9 @@
         <v>128.6008</v>
       </c>
     </row>
-    <row r="60" spans="1:28">
+    <row r="60" spans="1:27">
       <c r="A60" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B60">
         <v>0.5255</v>
@@ -5444,9 +5414,9 @@
         <v>158.4122</v>
       </c>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" spans="1:27">
       <c r="A61" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B61">
         <v>0.3943</v>
@@ -5527,9 +5497,9 @@
         <v>164.7218</v>
       </c>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" spans="1:27">
       <c r="A62" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B62">
         <v>0.4001</v>
@@ -5610,9 +5580,9 @@
         <v>167.2476</v>
       </c>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" spans="1:27">
       <c r="A63" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B63">
         <v>0.1289</v>
@@ -5671,13 +5641,10 @@
       <c r="AA63">
         <v>431.4502</v>
       </c>
-      <c r="AB63">
-        <v>62692.187</v>
-      </c>
-    </row>
-    <row r="64" spans="1:28">
+    </row>
+    <row r="64" spans="1:27">
       <c r="A64" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B64">
         <v>0.4309</v>
@@ -5760,7 +5727,7 @@
     </row>
     <row r="65" spans="1:27">
       <c r="A65" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B65">
         <v>0.3663</v>
@@ -5843,7 +5810,7 @@
     </row>
     <row r="66" spans="1:27">
       <c r="A66" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B66">
         <v>0.3952</v>
@@ -5926,7 +5893,7 @@
     </row>
     <row r="67" spans="1:27">
       <c r="A67" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B67">
         <v>3.3751</v>
@@ -6009,7 +5976,7 @@
     </row>
     <row r="68" spans="1:27">
       <c r="A68" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B68">
         <v>0.6896</v>
@@ -6092,7 +6059,7 @@
     </row>
     <row r="69" spans="1:27">
       <c r="A69" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B69">
         <v>0.4576</v>
@@ -6175,7 +6142,7 @@
     </row>
     <row r="70" spans="1:27">
       <c r="A70" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B70">
         <v>0.3247</v>
@@ -6258,7 +6225,7 @@
     </row>
     <row r="71" spans="1:27">
       <c r="A71" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B71">
         <v>3.8526</v>
